--- a/CashFlow/GIS_cashflow.xlsx
+++ b/CashFlow/GIS_cashflow.xlsx
@@ -74,8 +74,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-201600000.0</v>
+        <v>6503000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>11700000.0</v>
+        <v>6286000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>165400000.0</v>
+        <v>4626700000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>404700000.0</v>
+        <v>3102400000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>263100000.0</v>
+        <v>1635400000.0</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
@@ -1194,10 +1194,10 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>427300000.0</v>
+        <v>13223000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>312600000.0</v>
+        <v>12763000000.0</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
